--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Rspo3</t>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05243300000000001</v>
+        <v>2.532784666666667</v>
       </c>
       <c r="H2">
-        <v>0.104866</v>
+        <v>7.598354</v>
       </c>
       <c r="I2">
-        <v>0.02014015227998088</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.01351751646668263</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +555,22 @@
         <v>0.325777</v>
       </c>
       <c r="O2">
-        <v>0.1969429372262032</v>
+        <v>0.1797880856321904</v>
       </c>
       <c r="P2">
-        <v>0.2689322520249767</v>
+        <v>0.2474388498825759</v>
       </c>
       <c r="Q2">
-        <v>0.005693821813666668</v>
+        <v>0.2750409967842222</v>
       </c>
       <c r="R2">
-        <v>0.034162930882</v>
+        <v>2.475368971058</v>
       </c>
       <c r="S2">
-        <v>0.003966460746202449</v>
+        <v>0.1797880856321904</v>
       </c>
       <c r="T2">
-        <v>0.003635296145169666</v>
+        <v>0.2474388498825759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05243300000000001</v>
+        <v>2.532784666666667</v>
       </c>
       <c r="H3">
-        <v>0.104866</v>
+        <v>7.598354</v>
       </c>
       <c r="I3">
-        <v>0.02014015227998088</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.01351751646668263</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,276 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4427975</v>
+        <v>0.4954095</v>
       </c>
       <c r="N3">
-        <v>0.885595</v>
+        <v>0.990819</v>
       </c>
       <c r="O3">
-        <v>0.8030570627737967</v>
+        <v>0.8202119143678096</v>
       </c>
       <c r="P3">
-        <v>0.7310677479750235</v>
+        <v>0.752561150117424</v>
       </c>
       <c r="Q3">
-        <v>0.02321720131750001</v>
+        <v>1.254765585321</v>
       </c>
       <c r="R3">
-        <v>0.09286880527000002</v>
+        <v>7.528593511926</v>
       </c>
       <c r="S3">
-        <v>0.01617369153377844</v>
+        <v>0.8202119143678096</v>
       </c>
       <c r="T3">
-        <v>0.00988222032151297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.532784666666667</v>
-      </c>
-      <c r="H4">
-        <v>7.598354</v>
-      </c>
-      <c r="I4">
-        <v>0.97287335988914</v>
-      </c>
-      <c r="J4">
-        <v>0.9794487757202892</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1085923333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.325777</v>
-      </c>
-      <c r="O4">
-        <v>0.1969429372262032</v>
-      </c>
-      <c r="P4">
-        <v>0.2689322520249767</v>
-      </c>
-      <c r="Q4">
-        <v>0.2750409967842222</v>
-      </c>
-      <c r="R4">
-        <v>2.475368971058</v>
-      </c>
-      <c r="S4">
-        <v>0.1916005370456923</v>
-      </c>
-      <c r="T4">
-        <v>0.2634053649975637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.532784666666667</v>
-      </c>
-      <c r="H5">
-        <v>7.598354</v>
-      </c>
-      <c r="I5">
-        <v>0.97287335988914</v>
-      </c>
-      <c r="J5">
-        <v>0.9794487757202892</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.4427975</v>
-      </c>
-      <c r="N5">
-        <v>0.885595</v>
-      </c>
-      <c r="O5">
-        <v>0.8030570627737967</v>
-      </c>
-      <c r="P5">
-        <v>0.7310677479750235</v>
-      </c>
-      <c r="Q5">
-        <v>1.121510718438333</v>
-      </c>
-      <c r="R5">
-        <v>6.729064310630001</v>
-      </c>
-      <c r="S5">
-        <v>0.7812728228434477</v>
-      </c>
-      <c r="T5">
-        <v>0.7160434107227257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01818866666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.054566</v>
-      </c>
-      <c r="I6">
-        <v>0.006986487830879005</v>
-      </c>
-      <c r="J6">
-        <v>0.007033707813028097</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1085923333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.325777</v>
-      </c>
-      <c r="O6">
-        <v>0.1969429372262032</v>
-      </c>
-      <c r="P6">
-        <v>0.2689322520249767</v>
-      </c>
-      <c r="Q6">
-        <v>0.001975149753555555</v>
-      </c>
-      <c r="R6">
-        <v>0.017776347782</v>
-      </c>
-      <c r="S6">
-        <v>0.001375939434308437</v>
-      </c>
-      <c r="T6">
-        <v>0.00189159088224332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01818866666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.054566</v>
-      </c>
-      <c r="I7">
-        <v>0.006986487830879005</v>
-      </c>
-      <c r="J7">
-        <v>0.007033707813028097</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4427975</v>
-      </c>
-      <c r="N7">
-        <v>0.885595</v>
-      </c>
-      <c r="O7">
-        <v>0.8030570627737967</v>
-      </c>
-      <c r="P7">
-        <v>0.7310677479750235</v>
-      </c>
-      <c r="Q7">
-        <v>0.008053896128333333</v>
-      </c>
-      <c r="R7">
-        <v>0.04832337677</v>
-      </c>
-      <c r="S7">
-        <v>0.005610548396570568</v>
-      </c>
-      <c r="T7">
-        <v>0.005142116930784779</v>
+        <v>0.752561150117424</v>
       </c>
     </row>
   </sheetData>
